--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,127 +58,121 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -548,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -685,31 +667,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L4">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>116</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.2267441860465116</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7207792207792207</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,219 +867,123 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>130</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>19</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8046875</v>
+      </c>
+      <c r="L11">
+        <v>103</v>
+      </c>
+      <c r="M11">
+        <v>103</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>25</v>
       </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.369098712446352</v>
-      </c>
-      <c r="C10">
-        <v>86</v>
-      </c>
-      <c r="D10">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>147</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L11">
-        <v>44</v>
-      </c>
-      <c r="M11">
-        <v>44</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1875</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>65</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,45 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>97</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1237,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1263,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.72</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1289,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1315,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.69375</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1341,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6896551724137931</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1372,16 +1234,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6575342465753424</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1393,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1419,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1445,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1471,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.5561357702349869</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1497,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5821596244131455</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L27">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1523,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5789473684210527</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1549,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1575,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5038759689922481</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L30">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="M30">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1601,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1627,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.48</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1653,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4722222222222222</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L33">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="M33">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1679,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4571428571428571</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1705,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1731,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.4021739130434783</v>
+        <v>0.328125</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1757,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.375</v>
+        <v>0.03467561521252797</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1783,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.2894736842105263</v>
+        <v>0.02663706992230854</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1809,85 +1671,59 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.2702702702702703</v>
+        <v>0.0135450723960766</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.02347417840375587</v>
+        <v>0.01062459755312299</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41">
-        <v>0.01158645276292335</v>
-      </c>
-      <c r="L41">
-        <v>13</v>
-      </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
-      <c r="N41">
-        <v>0.93</v>
-      </c>
-      <c r="O41">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1109</v>
+        <v>3073</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -43,12 +43,18 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -61,112 +67,106 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -530,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,16 +620,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6027397260273972</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2267441860465116</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>399</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.201058201058201</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.8660714285714286</v>
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1275167785234899</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>0.8636363636363636</v>
@@ -895,17 +895,41 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1693121693121693</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>157</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -921,17 +945,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1610738255033557</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>125</v>
+      </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="K10">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="L10">
-        <v>66</v>
-      </c>
       <c r="M10">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +991,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8046875</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +1043,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +1069,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7464788732394366</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1121,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7037037037037037</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.70625</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.69375</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L20">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="M20">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6785714285714286</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6698113207547169</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6063829787234043</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,15 +1329,15 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.58</v>
       </c>
       <c r="L24">
         <v>29</v>
@@ -1307,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5561357702349869</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L26">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="M26">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5333333333333333</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5238095238095238</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4943820224719101</v>
+        <v>0.4677966101694915</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.461764705882353</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L30">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>183</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4576271186440678</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L31">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4246575342465753</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1515,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3598326359832636</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L33">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3538461538461539</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1567,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3461538461538461</v>
+        <v>0.328125</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1593,15 +1641,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.328125</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="L36">
         <v>21</v>
@@ -1619,111 +1667,59 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.03467561521252797</v>
+        <v>0.01262272089761571</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M37">
         <v>31</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>863</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.02663706992230854</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39">
-        <v>0.0135450723960766</v>
-      </c>
-      <c r="L39">
-        <v>29</v>
-      </c>
-      <c r="M39">
-        <v>31</v>
-      </c>
-      <c r="N39">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O39">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>0.01062459755312299</v>
-      </c>
-      <c r="L40">
-        <v>33</v>
-      </c>
-      <c r="M40">
-        <v>34</v>
-      </c>
-      <c r="N40">
-        <v>0.97</v>
-      </c>
-      <c r="O40">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
   </sheetData>
